--- a/data/news_and_keyword/kosdaq/GRT.xlsx
+++ b/data/news_and_keyword/kosdaq/GRT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,147 +468,147 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023-08-28 16:06:00</t>
+          <t>2024-07-29 11:02:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>中 '애국소비' 강화 예상에 '상한가' 마감</t>
+          <t>중국 정부로부터 1500억 투자 유치'대규모 공장 설립'…연간 거...</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['中', '강화', '예상에', '마감']</t>
+          <t>['중국', '정부로부터', '1500억', '투자', '공장']</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-5.198019801980198</v>
+        <v>-400</v>
       </c>
       <c r="E2" t="n">
-        <v>-17.82178217821782</v>
+        <v>-400</v>
       </c>
       <c r="F2" t="n">
-        <v>-18.56435643564356</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2023-08-25 18:54:00</t>
+          <t>2023-08-28 16:06:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>주가 돌연 상한가...상승세 이어갈까?</t>
+          <t>中 '애국소비' 강화 예상에 '상한가' 마감</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['주가', '돌연', '상한가', '상승세', '이어갈까']</t>
+          <t>['中', '강화', '예상에', '마감']</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>29.90353697749196</v>
+        <v>-5.198019801980198</v>
       </c>
       <c r="E3" t="n">
-        <v>9.003215434083602</v>
+        <v>-17.82178217821782</v>
       </c>
       <c r="F3" t="n">
-        <v>0.482315112540193</v>
+        <v>-18.56435643564356</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-06-17 10:58:00</t>
+          <t>2023-08-25 18:54:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>원숭이두창에서 바이러스 검출 콘돔 필름사업 부각</t>
+          <t>주가 돌연 상한가...상승세 이어갈까?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['원숭이두창에서', '바이러스', '검출', '콘돔', '필름사업']</t>
+          <t>['주가', '돌연', '상한가', '상승세', '이어갈까']</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>29.90353697749196</v>
       </c>
       <c r="E4" t="n">
-        <v>2.928870292887029</v>
+        <v>9.003215434083602</v>
       </c>
       <c r="F4" t="n">
-        <v>4.602510460251046</v>
+        <v>0.482315112540193</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-01-27 14:34:00</t>
+          <t>2022-06-17 10:58:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>공개매수 끝나자 거래량 폭증하며 급등</t>
+          <t>원숭이두창에서 바이러스 검출 콘돔 필름사업 부각</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['공개매수', '끝나자', '거래량', '폭증하며', '급등']</t>
+          <t>['원숭이두창에서', '바이러스', '검출', '콘돔', '필름사업']</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-7.216494845360824</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.74914089347079</v>
+        <v>2.928870292887029</v>
       </c>
       <c r="F5" t="n">
-        <v>-12.02749140893471</v>
+        <v>4.602510460251046</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2020-10-20 09:26:00</t>
+          <t>2022-01-27 14:34:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>외부감사 리스크에 급락</t>
+          <t>공개매수 끝나자 거래량 폭증하며 급등</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['외부감사', '리스크에', '급락']</t>
+          <t>['공개매수', '끝나자', '거래량', '폭증하며', '급등']</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>-7.216494845360824</v>
       </c>
       <c r="E6" t="n">
-        <v>-10.28301886792453</v>
+        <v>-2.74914089347079</v>
       </c>
       <c r="F6" t="n">
-        <v>-10.28301886792453</v>
+        <v>-12.02749140893471</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2020-10-20 09:18:00</t>
+          <t>2020-10-20 09:26:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>외부감사 리스크에 '급락'</t>
+          <t>외부감사 리스크에 급락</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['외부감사', '리스크에']</t>
+          <t>['외부감사', '리스크에', '급락']</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -624,17 +624,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2020-10-20 09:13:00</t>
+          <t>2020-10-20 09:18:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>정기주총 앞두고 감사리스크에 '급락'</t>
+          <t>외부감사 리스크에 '급락'</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['정기주총', '앞두고', '감사리스크에']</t>
+          <t>['외부감사', '리스크에']</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -650,147 +650,147 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2019-09-02 11:53:00</t>
+          <t>2020-10-20 09:13:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>순익 646억·'현금부자' 너무 싼 핵심소재업체</t>
+          <t>정기주총 앞두고 감사리스크에 '급락'</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['순익', '너무', '싼', '핵심소재업체']</t>
+          <t>['정기주총', '앞두고', '감사리스크에']</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-4.128440366972478</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-5.045871559633028</v>
+        <v>-10.28301886792453</v>
       </c>
       <c r="F9" t="n">
-        <v>-8.715596330275229</v>
+        <v>-10.28301886792453</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2019-03-29 09:48:00</t>
+          <t>2019-09-02 11:53:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2천억원 '유증' 대납 완료에 강세</t>
+          <t>순익 646억·'현금부자' 너무 싼 핵심소재업체</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['2천억원', '대납', '완료에', '강세']</t>
+          <t>['순익', '너무', '싼', '핵심소재업체']</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3.03030303030303</v>
+        <v>-4.128440366972478</v>
       </c>
       <c r="E10" t="n">
-        <v>7.878787878787878</v>
+        <v>-5.045871559633028</v>
       </c>
       <c r="F10" t="n">
-        <v>8.282828282828284</v>
+        <v>-8.715596330275229</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2019-03-14 09:28:00</t>
+          <t>2019-03-29 09:48:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>中자회사 유상증자 소식에 주가 강세</t>
+          <t>2천억원 '유증' 대납 완료에 강세</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['中자회사', '유상증자', '소식에', '주가', '강세']</t>
+          <t>['2천억원', '대납', '완료에', '강세']</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="E11" t="n">
-        <v>3.184713375796179</v>
+        <v>7.878787878787878</v>
       </c>
       <c r="F11" t="n">
-        <v>12.95116772823779</v>
+        <v>8.282828282828284</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2017-05-04 09:53:00</t>
+          <t>2019-03-14 09:28:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>시가배당률 방식 현금 배당…9거래일만 반등</t>
+          <t>中자회사 유상증자 소식에 주가 강세</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['시가배당률', '방식', '현금', '반등']</t>
+          <t>['中자회사', '유상증자', '소식에', '주가', '강세']</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2.263083451202263</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>3.111739745403112</v>
+        <v>3.184713375796179</v>
       </c>
       <c r="F12" t="n">
-        <v>9.900990099009901</v>
+        <v>12.95116772823779</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2016-11-28 10:46:00</t>
+          <t>2017-05-04 09:53:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>급등세...매출 성장 빠를 것</t>
+          <t>시가배당률 방식 현금 배당…9거래일만 반등</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['급등세', '매출', '성장', '빠를']</t>
+          <t>['시가배당률', '방식', '현금', '반등']</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>2.263083451202263</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8064516129032258</v>
+        <v>3.111739745403112</v>
       </c>
       <c r="F13" t="n">
-        <v>-4.637096774193548</v>
+        <v>9.900990099009901</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2016-11-28 09:23:00</t>
+          <t>2016-11-28 10:46:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>신공장 가동 성장 기대감에 급등</t>
+          <t>급등세...매출 성장 빠를 것</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['신공장', '가동', '성장', '기대감에', '급등']</t>
+          <t>['급등세', '매출', '성장', '빠를']</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -806,95 +806,95 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2016-11-03 09:41:00</t>
+          <t>2016-11-28 09:23:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>6일만에 반등</t>
+          <t>신공장 가동 성장 기대감에 급등</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['6일만에', '반등']</t>
+          <t>['신공장', '가동', '성장', '기대감에', '급등']</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-6.32295719844358</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.750972762645914</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="F15" t="n">
-        <v>3.11284046692607</v>
+        <v>-4.637096774193548</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2016-10-31 09:36:00</t>
+          <t>2016-11-03 09:41:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3일만에 상승 반전</t>
+          <t>6일만에 반등</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['3일만에', '상승', '반전']</t>
+          <t>['6일만에', '반등']</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>-8.141592920353983</v>
+        <v>-6.32295719844358</v>
       </c>
       <c r="E16" t="n">
-        <v>-16.19469026548672</v>
+        <v>-1.750972762645914</v>
       </c>
       <c r="F16" t="n">
-        <v>-12.21238938053097</v>
+        <v>3.11284046692607</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2016-10-26 10:48:00</t>
+          <t>2016-10-31 09:36:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>상장 후 이틀연속 강세</t>
+          <t>3일만에 상승 반전</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['상장', '후', '이틀연속', '강세']</t>
+          <t>['3일만에', '상승', '반전']</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-8.025477707006369</v>
+        <v>-8.141592920353983</v>
       </c>
       <c r="E17" t="n">
-        <v>-40</v>
+        <v>-16.19469026548672</v>
       </c>
       <c r="F17" t="n">
-        <v>-41.65605095541402</v>
+        <v>-12.21238938053097</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2016-10-26 09:58:00</t>
+          <t>2016-10-26 10:48:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>주영남 대표 배당+실적 개선 약속 급등</t>
+          <t>상장 후 이틀연속 강세</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['주영남', '대표', '개선', '약속', '급등']</t>
+          <t>['상장', '후', '이틀연속', '강세']</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -910,17 +910,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2016-10-26 09:28:00</t>
+          <t>2016-10-26 09:58:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>코스닥 상장 이틀째 급등</t>
+          <t>주영남 대표 배당+실적 개선 약속 급등</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['코스닥', '상장', '이틀째', '급등']</t>
+          <t>['주영남', '대표', '개선', '약속', '급등']</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -936,17 +936,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2016-10-26 09:22:00</t>
+          <t>2016-10-26 09:28:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>상장 이틀째 급등</t>
+          <t>코스닥 상장 이틀째 급등</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['상장', '이틀째', '급등']</t>
+          <t>['코스닥', '상장', '이틀째', '급등']</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -962,17 +962,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2016-10-26 09:11:00</t>
+          <t>2016-10-26 09:22:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>코스닥 상장 후 연이틀 강세</t>
+          <t>상장 이틀째 급등</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['코스닥', '상장', '후', '연이틀', '강세']</t>
+          <t>['상장', '이틀째', '급등']</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -988,43 +988,43 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2016-10-25 17:30:00</t>
+          <t>2016-10-26 09:11:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>코스닥 상장 첫날 상한가 기록</t>
+          <t>코스닥 상장 후 연이틀 강세</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['코스닥', '상장', '첫날', '상한가', '기록']</t>
+          <t>['코스닥', '상장', '후', '연이틀', '강세']</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>20.76923076923077</v>
+        <v>-8.025477707006369</v>
       </c>
       <c r="E22" t="n">
-        <v>-20.15384615384615</v>
+        <v>-40</v>
       </c>
       <c r="F22" t="n">
-        <v>-26.15384615384616</v>
+        <v>-41.65605095541402</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2016-10-25 09:45:00</t>
+          <t>2016-10-25 17:30:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>상장 첫날 공모가 웃돌며 16%대 급등</t>
+          <t>코스닥 상장 첫날 상한가 기록</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['상장', '첫날', '공모가', '웃돌며', '16']</t>
+          <t>['코스닥', '상장', '첫날', '상한가', '기록']</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1040,17 +1040,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2016-10-25 09:26:00</t>
+          <t>2016-10-25 09:45:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>상장 첫 날 폭등…공모가 상회</t>
+          <t>상장 첫날 공모가 웃돌며 16%대 급등</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['상장', '첫', '날', '상회']</t>
+          <t>['상장', '첫날', '공모가', '웃돌며', '16']</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1066,17 +1066,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2016-10-25 09:19:00</t>
+          <t>2016-10-25 09:26:00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>상장 첫날 급등</t>
+          <t>상장 첫 날 폭등…공모가 상회</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>['상장', '첫날', '급등']</t>
+          <t>['상장', '첫', '날', '상회']</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1092,17 +1092,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2016-10-25 09:09:00</t>
+          <t>2016-10-25 09:19:00</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>상장 첫날 '급등'…공모가 웃돌아</t>
+          <t>상장 첫날 급등</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>['상장', '첫날', '웃돌아']</t>
+          <t>['상장', '첫날', '급등']</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -1112,6 +1112,32 @@
         <v>-20.15384615384615</v>
       </c>
       <c r="F26" t="n">
+        <v>-26.15384615384616</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2016-10-25 09:09:00</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>상장 첫날 '급등'…공모가 웃돌아</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>['상장', '첫날', '웃돌아']</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>20.76923076923077</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-20.15384615384615</v>
+      </c>
+      <c r="F27" t="n">
         <v>-26.15384615384616</v>
       </c>
     </row>
